--- a/stock_historical_data/3mo/SKYGOLD.NS.xlsx
+++ b/stock_historical_data/3mo/SKYGOLD.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,113 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B8" t="n">
+        <v>172.0399932861328</v>
+      </c>
+      <c r="C8" t="n">
+        <v>295</v>
+      </c>
+      <c r="D8" t="n">
+        <v>158.1649932861328</v>
+      </c>
+      <c r="E8" t="n">
+        <v>269.4349975585938</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>23730560</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B9" t="n">
+        <v>269.4349975585938</v>
+      </c>
+      <c r="C9" t="n">
+        <v>488.5499877929688</v>
+      </c>
+      <c r="D9" t="n">
+        <v>260.1000061035156</v>
+      </c>
+      <c r="E9" t="n">
+        <v>398.0499877929688</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>26136818</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>40</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
